--- a/新概念2计划表.xlsx
+++ b/新概念2计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="17700"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>新概念复习计划表</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>11-15</t>
+  </si>
+  <si>
+    <t>16-20</t>
+  </si>
+  <si>
+    <t>21-24</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>31-35</t>
+  </si>
+  <si>
+    <t>36-38</t>
+  </si>
+  <si>
+    <t>39-41</t>
   </si>
 </sst>
 </file>
@@ -80,11 +101,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
   <fonts count="22">
@@ -117,14 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -133,21 +146,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,13 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -223,8 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +246,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +260,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -269,19 +290,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +434,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,145 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,21 +495,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +579,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,145 +602,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1148,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1320,7 +1341,9 @@
         <f>B4+3</f>
         <v>44722</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="9">
         <v>4</v>
       </c>
@@ -1354,7 +1377,9 @@
         <f>B4+4</f>
         <v>44723</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="9">
         <v>5</v>
       </c>
@@ -1388,7 +1413,9 @@
         <f>B4+5</f>
         <v>44724</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="9">
         <v>6</v>
       </c>
@@ -1422,7 +1449,9 @@
         <f>B4+6</f>
         <v>44725</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="9">
         <v>7</v>
       </c>
@@ -1456,7 +1485,9 @@
         <f>B4+7</f>
         <v>44726</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="9">
         <v>8</v>
       </c>
@@ -1490,7 +1521,9 @@
         <f>B4+8</f>
         <v>44727</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="9">
         <v>9</v>
       </c>
@@ -1524,7 +1557,9 @@
         <f>B4+9</f>
         <v>44728</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="9">
         <v>10</v>
       </c>
@@ -2329,7 +2364,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/新概念2计划表.xlsx
+++ b/新概念2计划表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>新概念复习计划表</t>
   </si>
@@ -63,37 +63,16 @@
     <t>15天</t>
   </si>
   <si>
-    <t>1-5</t>
+    <t>36-39</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>6-10</t>
+    <t>40-43</t>
   </si>
   <si>
-    <t>11-15</t>
-  </si>
-  <si>
-    <t>16-20</t>
-  </si>
-  <si>
-    <t>21-24</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>25-30</t>
-  </si>
-  <si>
-    <t>31-35</t>
-  </si>
-  <si>
-    <t>36-38</t>
-  </si>
-  <si>
-    <t>39-41</t>
+    <t>44-47</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1127,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1233,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>44719</v>
+        <v>44731</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
@@ -1269,7 +1248,7 @@
       </c>
       <c r="B5" s="7">
         <f>B4+1</f>
-        <v>44720</v>
+        <v>44732</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
@@ -1303,7 +1282,7 @@
       </c>
       <c r="B6" s="7">
         <f>B4+2</f>
-        <v>44721</v>
+        <v>44733</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>17</v>
@@ -1339,11 +1318,9 @@
       </c>
       <c r="B7" s="7">
         <f>B4+3</f>
-        <v>44722</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>44734</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="9">
         <v>4</v>
       </c>
@@ -1375,11 +1352,9 @@
       </c>
       <c r="B8" s="7">
         <f>B4+4</f>
-        <v>44723</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>44735</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="9">
         <v>5</v>
       </c>
@@ -1411,11 +1386,9 @@
       </c>
       <c r="B9" s="7">
         <f>B4+5</f>
-        <v>44724</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>44736</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="9">
         <v>6</v>
       </c>
@@ -1447,11 +1420,9 @@
       </c>
       <c r="B10" s="7">
         <f>B4+6</f>
-        <v>44725</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>44737</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="9">
         <v>7</v>
       </c>
@@ -1483,11 +1454,9 @@
       </c>
       <c r="B11" s="7">
         <f>B4+7</f>
-        <v>44726</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>44738</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="9">
         <v>8</v>
       </c>
@@ -1519,11 +1488,9 @@
       </c>
       <c r="B12" s="7">
         <f>B4+8</f>
-        <v>44727</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>44739</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="9">
         <v>9</v>
       </c>
@@ -1555,11 +1522,9 @@
       </c>
       <c r="B13" s="7">
         <f>B4+9</f>
-        <v>44728</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>44740</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="9">
         <v>10</v>
       </c>
@@ -1591,7 +1556,7 @@
       </c>
       <c r="B14" s="7">
         <f>B4+10</f>
-        <v>44729</v>
+        <v>44741</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="9">
@@ -1625,7 +1590,7 @@
       </c>
       <c r="B15" s="7">
         <f>B4+11</f>
-        <v>44730</v>
+        <v>44742</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9">
@@ -1659,7 +1624,7 @@
       </c>
       <c r="B16" s="7">
         <f>B4+12</f>
-        <v>44731</v>
+        <v>44743</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9">
@@ -1693,7 +1658,7 @@
       </c>
       <c r="B17" s="7">
         <f>B4+13</f>
-        <v>44732</v>
+        <v>44744</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9">
@@ -1727,7 +1692,7 @@
       </c>
       <c r="B18" s="7">
         <f>B4+14</f>
-        <v>44733</v>
+        <v>44745</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="9">
@@ -1761,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>B4+15</f>
-        <v>44734</v>
+        <v>44746</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9">
@@ -1795,7 +1760,7 @@
       </c>
       <c r="B20" s="7">
         <f>B4+16</f>
-        <v>44735</v>
+        <v>44747</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9">
@@ -1829,7 +1794,7 @@
       </c>
       <c r="B21" s="7">
         <f>B4+17</f>
-        <v>44736</v>
+        <v>44748</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9">
@@ -1863,7 +1828,7 @@
       </c>
       <c r="B22" s="7">
         <f>B4+18</f>
-        <v>44737</v>
+        <v>44749</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="9">
@@ -1897,7 +1862,7 @@
       </c>
       <c r="B23" s="7">
         <f>B4+19</f>
-        <v>44738</v>
+        <v>44750</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9">
@@ -1931,7 +1896,7 @@
       </c>
       <c r="B24" s="7">
         <f>B4+20</f>
-        <v>44739</v>
+        <v>44751</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="9">
@@ -1965,7 +1930,7 @@
       </c>
       <c r="B25" s="7">
         <f>B4+21</f>
-        <v>44740</v>
+        <v>44752</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9">
@@ -1999,7 +1964,7 @@
       </c>
       <c r="B26" s="7">
         <f>B4+22</f>
-        <v>44741</v>
+        <v>44753</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9">
@@ -2033,7 +1998,7 @@
       </c>
       <c r="B27" s="7">
         <f>B4+23</f>
-        <v>44742</v>
+        <v>44754</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9">
@@ -2067,7 +2032,7 @@
       </c>
       <c r="B28" s="7">
         <f>B4+24</f>
-        <v>44743</v>
+        <v>44755</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="9">
@@ -2101,7 +2066,7 @@
       </c>
       <c r="B29" s="7">
         <f>B4+25</f>
-        <v>44744</v>
+        <v>44756</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9">
@@ -2135,7 +2100,7 @@
       </c>
       <c r="B30" s="7">
         <f>B4+26</f>
-        <v>44745</v>
+        <v>44757</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="9">
@@ -2169,7 +2134,7 @@
       </c>
       <c r="B31" s="7">
         <f>B4+27</f>
-        <v>44746</v>
+        <v>44758</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="9">
@@ -2203,7 +2168,7 @@
       </c>
       <c r="B32" s="7">
         <f>B4+28</f>
-        <v>44747</v>
+        <v>44759</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="9">
@@ -2237,7 +2202,7 @@
       </c>
       <c r="B33" s="7">
         <f>B4+29</f>
-        <v>44748</v>
+        <v>44760</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="9">
@@ -2271,7 +2236,7 @@
       </c>
       <c r="B34" s="11">
         <f>B4+30</f>
-        <v>44749</v>
+        <v>44761</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="9"/>

--- a/新概念2计划表.xlsx
+++ b/新概念2计划表.xlsx
@@ -63,16 +63,16 @@
     <t>15天</t>
   </si>
   <si>
-    <t>36-39</t>
+    <t>38-40</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>40-43</t>
+    <t>41-43</t>
   </si>
   <si>
-    <t>44-47</t>
+    <t>44-46</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/新概念2计划表.xlsx
+++ b/新概念2计划表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>新概念复习计划表</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>44-46</t>
+  </si>
+  <si>
+    <t>47-48</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1320,7 +1323,9 @@
         <f>B4+3</f>
         <v>44734</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="9">
         <v>4</v>
       </c>
